--- a/Multiknapsack/results/random_recourse/multicut/M50_N100_T50_a50_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/multicut/M50_N100_T50_a50_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-583.0449751292116</v>
+        <v>-583.0449769298641</v>
       </c>
       <c r="C2">
-        <v>1200.346875494</v>
+        <v>1444.89816742</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>-584.3792548550521</v>
       </c>
       <c r="C3">
-        <v>1212.066346817</v>
+        <v>1484.145456856</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-591.9627349013266</v>
+        <v>-591.9627421610376</v>
       </c>
       <c r="C4">
-        <v>1205.860678093</v>
+        <v>1620.242970949</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -561,7 +561,7 @@
         <v>-604.0709239152299</v>
       </c>
       <c r="C5">
-        <v>1205.726036406</v>
+        <v>1320.308659059</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>-583.7727072147645</v>
       </c>
       <c r="C6">
-        <v>1207.540634343</v>
+        <v>1361.621325062</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-572.4375257736805</v>
+        <v>-572.4375263728615</v>
       </c>
       <c r="C7">
-        <v>1215.627125862</v>
+        <v>1485.856262025</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-572.2368897973317</v>
+        <v>-572.2368907390821</v>
       </c>
       <c r="C8">
-        <v>1218.202443869</v>
+        <v>1598.838183145</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>-587.0002262520317</v>
       </c>
       <c r="C9">
-        <v>1224.86145691</v>
+        <v>1374.830899549</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-580.644798445637</v>
+        <v>-580.6447985151415</v>
       </c>
       <c r="C10">
-        <v>1215.226708936</v>
+        <v>1561.866181485</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-576.6463857031263</v>
+        <v>-576.6463861113283</v>
       </c>
       <c r="C11">
-        <v>1216.590259494</v>
+        <v>1677.300846747</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.999354442791015</v>
+        <v>9.715260435527588</v>
       </c>
       <c r="E2">
         <v>78.68386</v>
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-580.644798445637</v>
+        <v>-580.6447985151415</v>
       </c>
       <c r="C3">
-        <v>9.185523618488492</v>
+        <v>0.09950538111434619</v>
       </c>
       <c r="D3">
-        <v>1004.5037948922243</v>
+        <v>1382.1005674252017</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,7 +861,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.617774076773559</v>
+        <v>10.52024122085437</v>
       </c>
       <c r="E2">
         <v>80.7774</v>
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-576.6463857031263</v>
+        <v>-576.6463861113283</v>
       </c>
       <c r="C3">
-        <v>11.528863213256443</v>
+        <v>0.09970735509272843</v>
       </c>
       <c r="D3">
-        <v>1008.1532588036392</v>
+        <v>1486.4667990655726</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>11.548247075983399</v>
+        <v>12.70050361660852</v>
       </c>
       <c r="E2">
         <v>83.27092</v>
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-583.0449751292116</v>
+        <v>-583.0449769298641</v>
       </c>
       <c r="C3">
-        <v>8.752939094236133</v>
+        <v>0.09969505887898387</v>
       </c>
       <c r="D3">
-        <v>1006.5561534227892</v>
+        <v>1254.2459598676494</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.853208477023804</v>
+        <v>10.396647928500366</v>
       </c>
       <c r="E2">
         <v>74.93212</v>
@@ -1003,10 +1003,10 @@
         <v>-584.3792548550521</v>
       </c>
       <c r="C3">
-        <v>9.803347402086581</v>
+        <v>0.08592350828960689</v>
       </c>
       <c r="D3">
-        <v>1008.3825973646512</v>
+        <v>1303.0283617024304</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,7 +1053,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.59600808072876</v>
+        <v>11.61184968145752</v>
       </c>
       <c r="E2">
         <v>81.90707</v>
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-591.9627349013266</v>
+        <v>-591.9627421610376</v>
       </c>
       <c r="C3">
-        <v>7.66929717695282</v>
+        <v>0.09408212701175883</v>
       </c>
       <c r="D3">
-        <v>1007.4271507601289</v>
+        <v>1436.3522895833453</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,7 +1117,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>12.708388890831543</v>
+        <v>10.428838560385499</v>
       </c>
       <c r="E2">
         <v>83.60946</v>
@@ -1131,10 +1131,10 @@
         <v>-604.0709239152299</v>
       </c>
       <c r="C3">
-        <v>9.140647844598623</v>
+        <v>0.09982818600717423</v>
       </c>
       <c r="D3">
-        <v>1009.5150386361335</v>
+        <v>1129.5328513227405</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>15.233889172435669</v>
+        <v>11.105487589389893</v>
       </c>
       <c r="E2">
         <v>75.28678</v>
@@ -1195,10 +1195,10 @@
         <v>-583.7727072147645</v>
       </c>
       <c r="C3">
-        <v>6.798538883514528</v>
+        <v>0.0991460682000717</v>
       </c>
       <c r="D3">
-        <v>1008.2831768132639</v>
+        <v>1176.8380528668288</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>12.145772486135254</v>
+        <v>3.2795609781677246</v>
       </c>
       <c r="E2">
         <v>82.712</v>
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-572.4375257736805</v>
+        <v>-572.4375263728615</v>
       </c>
       <c r="C3">
-        <v>7.201152487289173</v>
+        <v>0.09978954906580872</v>
       </c>
       <c r="D3">
-        <v>1004.9026954936538</v>
+        <v>1304.2294425332577</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,7 +1309,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.992017646277343</v>
+        <v>3.548194586202759</v>
       </c>
       <c r="E2">
         <v>82.59206</v>
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-572.2368897973317</v>
+        <v>-572.2368907390821</v>
       </c>
       <c r="C3">
-        <v>10.308621729539055</v>
+        <v>0.09798331540783724</v>
       </c>
       <c r="D3">
-        <v>1008.3689161685668</v>
+        <v>1405.8753364933095</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,7 +1373,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>11.322673875233642</v>
+        <v>11.77293210564441</v>
       </c>
       <c r="E2">
         <v>83.5153</v>
@@ -1387,10 +1387,10 @@
         <v>-587.0002262520317</v>
       </c>
       <c r="C3">
-        <v>8.601142180372925</v>
+        <v>0.09911378747459428</v>
       </c>
       <c r="D3">
-        <v>1007.7594403792511</v>
+        <v>1182.358108377029</v>
       </c>
       <c r="E3">
         <v>0.0</v>
